--- a/Software/The Trade Desk.xlsx
+++ b/Software/The Trade Desk.xlsx
@@ -5,31 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609F0794-C491-4E4F-8DAC-BDC3803A8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7161DA3-E4A8-CD42-9D93-37AD6F44CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28360" yWindow="500" windowWidth="22800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$J$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$J$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$19:$J$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$106:$J$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -945,18 +931,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -994,12 +968,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1021,6 +989,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2433,11 +2419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P95" sqref="P95"/>
+      <selection pane="bottomRight" activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5386,10 +5372,10 @@
       <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="34" t="s">
+      <c r="Q83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="R83" s="35"/>
+      <c r="R83" s="64"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5422,10 +5408,10 @@
       <c r="J84" s="1">
         <v>187119000</v>
       </c>
-      <c r="Q84" s="36" t="s">
+      <c r="Q84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="R84" s="37"/>
+      <c r="R84" s="66"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5575,10 +5561,10 @@
       <c r="J88" s="1">
         <v>-84160000</v>
       </c>
-      <c r="Q88" s="38" t="s">
+      <c r="Q88" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="R88" s="39">
+      <c r="R88" s="35">
         <f>R85/(R86+R87)</f>
         <v>4.8877784462574292E-2</v>
       </c>
@@ -5707,10 +5693,10 @@
       <c r="J91" s="1">
         <v>-553295000</v>
       </c>
-      <c r="Q91" s="38" t="s">
+      <c r="Q91" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="R91" s="39">
+      <c r="R91" s="35">
         <f>R89/R90</f>
         <v>0.58086676611446963</v>
       </c>
@@ -5746,10 +5732,10 @@
       <c r="J92" s="1">
         <v>340806000</v>
       </c>
-      <c r="Q92" s="40" t="s">
+      <c r="Q92" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="R92" s="41">
+      <c r="R92" s="37">
         <f>R88*(1-R91)</f>
         <v>2.0486303866958693E-2</v>
       </c>
@@ -5785,10 +5771,10 @@
       <c r="J93" s="1">
         <v>-7725000</v>
       </c>
-      <c r="Q93" s="36" t="s">
+      <c r="Q93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="R93" s="37"/>
+      <c r="R93" s="66"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5824,7 +5810,7 @@
       <c r="Q94" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="R94" s="42">
+      <c r="R94" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5859,10 +5845,10 @@
       <c r="J95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q95" s="43" t="s">
+      <c r="Q95" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R95" s="44">
+      <c r="R95" s="40">
         <v>1.82</v>
       </c>
     </row>
@@ -5900,7 +5886,7 @@
       <c r="Q96" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="R96" s="42">
+      <c r="R96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5935,10 +5921,10 @@
       <c r="J97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q97" s="40" t="s">
+      <c r="Q97" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="R97" s="41">
+      <c r="R97" s="37">
         <f>(R94)+((R95)*(R96-R94))</f>
         <v>0.11930100000000002</v>
       </c>
@@ -5974,10 +5960,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="36" t="s">
+      <c r="Q98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="R98" s="37"/>
+      <c r="R98" s="66"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6049,10 +6035,10 @@
       <c r="J100" s="10">
         <v>31992000</v>
       </c>
-      <c r="Q100" s="38" t="s">
+      <c r="Q100" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="R100" s="39">
+      <c r="R100" s="35">
         <f>R99/R103</f>
         <v>9.3149170280718268E-3</v>
       </c>
@@ -6088,10 +6074,10 @@
       <c r="J101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q101" s="43" t="s">
+      <c r="Q101" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="R101" s="45">
+      <c r="R101" s="41">
         <f>27754000000</f>
         <v>27754000000</v>
       </c>
@@ -6127,10 +6113,10 @@
       <c r="J102" s="10">
         <v>276352000</v>
       </c>
-      <c r="Q102" s="38" t="s">
+      <c r="Q102" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="R102" s="39">
+      <c r="R102" s="35">
         <f>R101/R103</f>
         <v>0.99068508297192814</v>
       </c>
@@ -6166,10 +6152,10 @@
       <c r="J103" s="1">
         <v>754154000</v>
       </c>
-      <c r="Q103" s="40" t="s">
+      <c r="Q103" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="R103" s="46">
+      <c r="R103" s="42">
         <f>R99+R101</f>
         <v>28014957000</v>
       </c>
@@ -6205,10 +6191,10 @@
       <c r="J104" s="11">
         <v>1030506000</v>
       </c>
-      <c r="Q104" s="36" t="s">
+      <c r="Q104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="R104" s="37"/>
+      <c r="R104" s="66"/>
     </row>
     <row r="105" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6292,33 +6278,33 @@
       <c r="J106" s="1">
         <v>456849000</v>
       </c>
-      <c r="K106" s="47">
+      <c r="K106" s="43">
         <f>J106*(1+$R$106)</f>
         <v>561011284.37003779</v>
       </c>
-      <c r="L106" s="47">
+      <c r="L106" s="43">
         <f t="shared" ref="L106:O106" si="9">K106*(1+$R$106)</f>
         <v>688922731.99792361</v>
       </c>
-      <c r="M106" s="47">
+      <c r="M106" s="43">
         <f t="shared" si="9"/>
         <v>845998189.1387974</v>
       </c>
-      <c r="N106" s="47">
+      <c r="N106" s="43">
         <f t="shared" si="9"/>
         <v>1038887095.4374046</v>
       </c>
-      <c r="O106" s="47">
+      <c r="O106" s="43">
         <f t="shared" si="9"/>
         <v>1275754973.1460426</v>
       </c>
-      <c r="P106" s="48" t="s">
+      <c r="P106" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="Q106" s="49" t="s">
+      <c r="Q106" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="R106" s="50">
+      <c r="R106" s="46">
         <f>(SUM(K4:O4)/5)</f>
         <v>0.22800155931180269</v>
       </c>
@@ -6334,150 +6320,150 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="48"/>
-      <c r="N107" s="48"/>
-      <c r="O107" s="51">
+      <c r="K107" s="44"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="47">
         <f>O106*(1+R107)/(R108-R107)</f>
         <v>14003439230.288895</v>
       </c>
-      <c r="P107" s="52" t="s">
+      <c r="P107" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="53" t="s">
+      <c r="Q107" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="R107" s="54">
+      <c r="R107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="51">
+      <c r="K108" s="47">
         <f t="shared" ref="K108:M108" si="10">K107+K106</f>
         <v>561011284.37003779</v>
       </c>
-      <c r="L108" s="51">
+      <c r="L108" s="47">
         <f t="shared" si="10"/>
         <v>688922731.99792361</v>
       </c>
-      <c r="M108" s="51">
+      <c r="M108" s="47">
         <f t="shared" si="10"/>
         <v>845998189.1387974</v>
       </c>
-      <c r="N108" s="51">
+      <c r="N108" s="47">
         <f>N107+N106</f>
         <v>1038887095.4374046</v>
       </c>
-      <c r="O108" s="51">
+      <c r="O108" s="47">
         <f>O107+O106</f>
         <v>15279194203.434937</v>
       </c>
-      <c r="P108" s="52" t="s">
+      <c r="P108" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="Q108" s="55" t="s">
+      <c r="Q108" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="R108" s="56">
+      <c r="R108" s="52">
         <f>R105</f>
         <v>0.1183805493043666</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="57" t="s">
+      <c r="K109" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="58"/>
+      <c r="L109" s="68"/>
     </row>
     <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="59" t="s">
+      <c r="K110" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="L110" s="60">
+      <c r="L110" s="54">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
         <v>11054051459.003345</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="59" t="s">
+      <c r="K111" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="L111" s="60">
+      <c r="L111" s="54">
         <f>J40</f>
         <v>1446586000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="59" t="s">
+      <c r="K112" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="L112" s="60">
+      <c r="L112" s="54">
         <f>R99</f>
         <v>260957000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="59" t="s">
+      <c r="K113" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="L113" s="60">
+      <c r="L113" s="54">
         <f>L110+L111-L112</f>
         <v>12239680459.003345</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="59" t="s">
+      <c r="K114" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="L114" s="61">
+      <c r="L114" s="55">
         <f>J34*(1+(5*P16))</f>
         <v>564223217.81823242</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="62" t="s">
+      <c r="K115" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="L115" s="63">
+      <c r="L115" s="57">
         <f>L113/L114</f>
         <v>21.692975532507109</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="64" t="s">
+      <c r="K116" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="L116" s="65">
+      <c r="L116" s="59">
         <v>56.53</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="66" t="s">
+      <c r="K117" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="L117" s="67">
+      <c r="L117" s="61">
         <f>L115/L116-1</f>
         <v>-0.61625728759053411</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="66" t="s">
+      <c r="K118" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="L118" s="68" t="str">
+      <c r="L118" s="62" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K109:L109"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="Q84:R84"/>
     <mergeCell ref="Q93:R93"/>
     <mergeCell ref="Q98:R98"/>
     <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="K109:L109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TTD" display="ROIC.AI | TTD" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Software/The Trade Desk.xlsx
+++ b/Software/The Trade Desk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7161DA3-E4A8-CD42-9D93-37AD6F44CAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F92559E-6BC1-8C4D-B1B1-A210A722FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28360" yWindow="500" windowWidth="22800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>The Trade Desk</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -864,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,11 +975,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -978,17 +1008,18 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,12 +1033,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,6 +2151,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24lfr&amp;q=XNAS%3aTTD&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a24lfr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>76.75</v>
+    <v>39</v>
+    <v>1.7935000000000001</v>
+    <v>2.21</v>
+    <v>3.7687999999999999E-2</v>
+    <v>-0.15</v>
+    <v>-2.4650000000000002E-3</v>
+    <v>USD</v>
+    <v>The Trade Desk, Inc. is a technology company. The Company through its self-service, cloud-based platform and ad buyers creates, manages, and optimizes data-driven digital advertising campaigns across ad formats and channels, including display, video, audio, in-app, native and social, on a multitude of devices, such as computers, mobile devices, and connected television. It offers a self-service omnichannel software platform that enables its clients to purchase and manage data-driven digital advertising campaigns. The Company's platform allows clients to manage integrated advertising campaigns across various advertising channels and formats. Its platform’s integrations with inventory, data partners, and publishers provide ad buyers with reach and decisioning capabilities, and its enterprise application programming interfaces (APIs) enable its clients to customize and expand platform functionality. It offers solutions to advertising agencies and other service providers for advertisers.</v>
+    <v>2770</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>42 N Chestnut St, VENTURA, CA, 93001-2662 US</v>
+    <v>60.96</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999921897659</v>
+    <v>0</v>
+    <v>57.17</v>
+    <v>29864863580</v>
+    <v>THE TRADE DESK, INC.</v>
+    <v>THE TRADE DESK, INC.</v>
+    <v>58</v>
+    <v>623.56439999999998</v>
+    <v>58.64</v>
+    <v>60.85</v>
+    <v>60.7</v>
+    <v>490794800</v>
+    <v>TTD</v>
+    <v>THE TRADE DESK, INC. (XNAS:TTD)</v>
+    <v>3240581</v>
+    <v>3440952</v>
+    <v>2009</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2420,10 +2891,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L65" sqref="L65"/>
+      <selection pane="bottomRight" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,8 +2905,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2014</v>
@@ -2574,21 +3045,21 @@
         <v>4401000000</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2739,16 +3210,16 @@
         <v>1296672000</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="R6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2833,7 +3304,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -2874,16 +3345,16 @@
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="P9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2998,21 +3469,21 @@
         <v>863142000</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3133,16 +3604,16 @@
         <v>1464141000</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3182,15 +3653,15 @@
       </c>
       <c r="Q16" s="31">
         <f>R101/J3</f>
-        <v>17.590371372706848</v>
+        <v>18.928228052440272</v>
       </c>
       <c r="R16" s="31">
         <f>R101/J28</f>
-        <v>519.88386250819519</v>
+        <v>559.42424988292589</v>
       </c>
       <c r="S16" s="32">
         <f>R101/J106</f>
-        <v>60.750926454911799</v>
+        <v>65.371410641152764</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3257,7 +3728,7 @@
         <v>54425000</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3298,7 +3769,7 @@
     </row>
     <row r="20" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3593,7 +4064,7 @@
     </row>
     <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3791,7 +4262,7 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -5237,7 +5708,7 @@
     </row>
     <row r="80" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:J80" si="6">B79/B3</f>
@@ -5372,10 +5843,10 @@
       <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="R83" s="64"/>
+      <c r="Q83" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="R83" s="60"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5408,10 +5879,10 @@
       <c r="J84" s="1">
         <v>187119000</v>
       </c>
-      <c r="Q84" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="R84" s="66"/>
+      <c r="Q84" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="R84" s="62"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5445,7 +5916,7 @@
         <v>92</v>
       </c>
       <c r="Q85" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R85" s="25">
         <f>J17</f>
@@ -5484,7 +5955,7 @@
         <v>92</v>
       </c>
       <c r="Q86" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R86" s="25">
         <f>J56</f>
@@ -5523,7 +5994,7 @@
         <v>548734000</v>
       </c>
       <c r="Q87" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R87" s="25">
         <f>J61</f>
@@ -5562,7 +6033,7 @@
         <v>-84160000</v>
       </c>
       <c r="Q88" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R88" s="35">
         <f>R85/(R86+R87)</f>
@@ -5571,7 +6042,7 @@
     </row>
     <row r="89" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:J89" si="7">(-1*B88)/B3</f>
@@ -5616,7 +6087,7 @@
       <c r="O89" s="15"/>
       <c r="P89" s="15"/>
       <c r="Q89" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R89" s="25">
         <f>J27</f>
@@ -5694,7 +6165,7 @@
         <v>-553295000</v>
       </c>
       <c r="Q91" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R91" s="35">
         <f>R89/R90</f>
@@ -5733,7 +6204,7 @@
         <v>340806000</v>
       </c>
       <c r="Q92" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R92" s="37">
         <f>R88*(1-R91)</f>
@@ -5771,10 +6242,10 @@
       <c r="J93" s="1">
         <v>-7725000</v>
       </c>
-      <c r="Q93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="R93" s="66"/>
+      <c r="Q93" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="R93" s="62"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5808,7 +6279,7 @@
         <v>-304374000</v>
       </c>
       <c r="Q94" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R94" s="38">
         <v>4.095E-2</v>
@@ -5845,11 +6316,12 @@
       <c r="J95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q95" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="R95" s="40">
-        <v>1.82</v>
+      <c r="Q95" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="R95" s="64" cm="1">
+        <f t="array" ref="R95">_FV(A1,"Beta")</f>
+        <v>1.7935000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -5884,7 +6356,7 @@
         <v>92</v>
       </c>
       <c r="Q96" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R96" s="38">
         <v>8.4000000000000005E-2</v>
@@ -5922,11 +6394,11 @@
         <v>92</v>
       </c>
       <c r="Q97" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R97" s="37">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.11930100000000002</v>
+        <v>0.11816017500000002</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -5960,10 +6432,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="R98" s="66"/>
+      <c r="Q98" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="R98" s="62"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5997,7 +6469,7 @@
         <v>31992000</v>
       </c>
       <c r="Q99" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R99" s="25">
         <f>R86+R87</f>
@@ -6036,11 +6508,11 @@
         <v>31992000</v>
       </c>
       <c r="Q100" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R100" s="35">
         <f>R99/R103</f>
-        <v>9.3149170280718268E-3</v>
+        <v>8.6622370768962478E-3</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6074,12 +6546,12 @@
       <c r="J101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q101" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="R101" s="41">
-        <f>27754000000</f>
-        <v>27754000000</v>
+      <c r="Q101" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="R101" s="51" cm="1">
+        <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
+        <v>29864863580</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6114,11 +6586,11 @@
         <v>276352000</v>
       </c>
       <c r="Q102" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R102" s="35">
         <f>R101/R103</f>
-        <v>0.99068508297192814</v>
+        <v>0.99133776292310372</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6153,11 +6625,11 @@
         <v>754154000</v>
       </c>
       <c r="Q103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="R103" s="42">
+        <v>143</v>
+      </c>
+      <c r="R103" s="39">
         <f>R99+R101</f>
-        <v>28014957000</v>
+        <v>30125820580</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6191,14 +6663,14 @@
       <c r="J104" s="11">
         <v>1030506000</v>
       </c>
-      <c r="Q104" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="R104" s="66"/>
+      <c r="Q104" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="R104" s="62"/>
     </row>
     <row r="105" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -6240,11 +6712,11 @@
       <c r="O105" s="15"/>
       <c r="P105" s="15"/>
       <c r="Q105" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>0.1183805493043666</v>
+        <v>0.1173141007720274</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6278,33 +6750,33 @@
       <c r="J106" s="1">
         <v>456849000</v>
       </c>
-      <c r="K106" s="43">
+      <c r="K106" s="40">
         <f>J106*(1+$R$106)</f>
         <v>561011284.37003779</v>
       </c>
-      <c r="L106" s="43">
+      <c r="L106" s="40">
         <f t="shared" ref="L106:O106" si="9">K106*(1+$R$106)</f>
         <v>688922731.99792361</v>
       </c>
-      <c r="M106" s="43">
+      <c r="M106" s="40">
         <f t="shared" si="9"/>
         <v>845998189.1387974</v>
       </c>
-      <c r="N106" s="43">
+      <c r="N106" s="40">
         <f t="shared" si="9"/>
         <v>1038887095.4374046</v>
       </c>
-      <c r="O106" s="43">
+      <c r="O106" s="40">
         <f t="shared" si="9"/>
         <v>1275754973.1460426</v>
       </c>
-      <c r="P106" s="44" t="s">
+      <c r="P106" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="Q106" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="R106" s="46">
+      <c r="R106" s="43">
         <f>(SUM(K4:O4)/5)</f>
         <v>0.22800155931180269</v>
       </c>
@@ -6320,138 +6792,139 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="47">
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="44">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>14003439230.288895</v>
-      </c>
-      <c r="P107" s="48" t="s">
+        <v>14165212427.340584</v>
+      </c>
+      <c r="P107" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="R107" s="50">
+      <c r="R107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K108" s="47">
+      <c r="K108" s="44">
         <f t="shared" ref="K108:M108" si="10">K107+K106</f>
         <v>561011284.37003779</v>
       </c>
-      <c r="L108" s="47">
+      <c r="L108" s="44">
         <f t="shared" si="10"/>
         <v>688922731.99792361</v>
       </c>
-      <c r="M108" s="47">
+      <c r="M108" s="44">
         <f t="shared" si="10"/>
         <v>845998189.1387974</v>
       </c>
-      <c r="N108" s="47">
+      <c r="N108" s="44">
         <f>N107+N106</f>
         <v>1038887095.4374046</v>
       </c>
-      <c r="O108" s="47">
+      <c r="O108" s="44">
         <f>O107+O106</f>
-        <v>15279194203.434937</v>
-      </c>
-      <c r="P108" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q108" s="51" t="s">
+        <v>15440967400.486626</v>
+      </c>
+      <c r="P108" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q108" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="R108" s="49">
+        <f>R105</f>
+        <v>0.1173141007720274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="K109" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="R108" s="52">
-        <f>R105</f>
-        <v>0.1183805493043666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="67" t="s">
+      <c r="L109" s="58"/>
+    </row>
+    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K110" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="68"/>
-    </row>
-    <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="53" t="s">
+      <c r="L110" s="51">
+        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
+        <v>11194513390.836397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="K111" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="L110" s="54">
-        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>11054051459.003345</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="L111" s="54">
+      <c r="L111" s="51">
         <f>J40</f>
         <v>1446586000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="L112" s="54">
+      <c r="K112" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L112" s="51">
         <f>R99</f>
         <v>260957000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="53" t="s">
+      <c r="K113" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="L113" s="51">
+        <f>L110+L111-L112</f>
+        <v>12380142390.836397</v>
+      </c>
+    </row>
+    <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K114" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="L113" s="54">
-        <f>L110+L111-L112</f>
-        <v>12239680459.003345</v>
-      </c>
-    </row>
-    <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="L114" s="55">
+      <c r="L114" s="52">
         <f>J34*(1+(5*P16))</f>
         <v>564223217.81823242</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="56" t="s">
+      <c r="K115" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="L115" s="66">
+        <f>L113/L114</f>
+        <v>21.94192298344009</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="L115" s="57">
-        <f>L113/L114</f>
-        <v>21.692975532507109</v>
-      </c>
-    </row>
-    <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="58" t="s">
+      <c r="L116" s="65" cm="1">
+        <f t="array" ref="L116">_FV(A1,"Price")</f>
+        <v>60.85</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K117" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="L116" s="59">
-        <v>56.53</v>
-      </c>
-    </row>
-    <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="60" t="s">
+      <c r="L117" s="55">
+        <f>L115/L116-1</f>
+        <v>-0.63940964694428781</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="K118" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="L117" s="61">
-        <f>L115/L116-1</f>
-        <v>-0.61625728759053411</v>
-      </c>
-    </row>
-    <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="L118" s="62" t="str">
+      <c r="L118" s="56" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
